--- a/data/data_test/Repartition.xlsx
+++ b/data/data_test/Repartition.xlsx
@@ -41,31 +41,31 @@
     <t xml:space="preserve">M1</t>
   </si>
   <si>
+    <t xml:space="preserve">CHAPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projet1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etu3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etu4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Projet3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaborateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etu2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projet1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etu3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etu4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO</t>
   </si>
   <si>
     <t xml:space="preserve">Etu5</t>
@@ -114,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,6 +140,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,11 +205,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,7 +233,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,7 +252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -257,53 +262,53 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -311,27 +316,27 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -339,69 +344,69 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -409,27 +414,27 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -437,23 +442,23 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -476,7 +481,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G22" activeCellId="1" sqref="C2:D16 G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,8 +507,8 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
@@ -520,7 +525,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>7</v>
@@ -548,7 +553,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,11 +563,11 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,11 +591,11 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,8 +605,8 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>7</v>
@@ -629,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>7</v>
@@ -646,7 +651,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,11 +661,11 @@
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +679,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,11 +689,11 @@
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
